--- a/development/stimuli/word_lists/word_freq_list.xlsx
+++ b/development/stimuli/word_lists/word_freq_list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\khen_heller\subliminal_priming_w_motion_capture-main\development\stimuli\word_lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\development\stimuli\word_lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CBCF2F-1534-4BD0-840A-B690D7B21008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="12360"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,26 +34,116 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+  <si>
+    <t>עניבה</t>
+  </si>
   <si>
     <t>צפרדע</t>
   </si>
   <si>
+    <t>מקלדת</t>
+  </si>
+  <si>
     <t>אגרטל</t>
   </si>
   <si>
+    <t>מגירה</t>
+  </si>
+  <si>
+    <t>מזרקה</t>
+  </si>
+  <si>
+    <t>מנורה</t>
+  </si>
+  <si>
+    <t>וילון</t>
+  </si>
+  <si>
+    <t>תמרור</t>
+  </si>
+  <si>
+    <t>מטאטא</t>
+  </si>
+  <si>
     <t>אבטיח</t>
   </si>
   <si>
+    <t>קיפוד</t>
+  </si>
+  <si>
+    <t>רמזור</t>
+  </si>
+  <si>
+    <t>שרשרת</t>
+  </si>
+  <si>
     <t>בלנדר</t>
   </si>
   <si>
     <t>פרחים</t>
   </si>
   <si>
+    <t>כינור</t>
+  </si>
+  <si>
+    <t>מצלמה</t>
+  </si>
+  <si>
+    <t>גלידה</t>
+  </si>
+  <si>
     <t>גיטרה</t>
   </si>
   <si>
+    <t>תרסיס</t>
+  </si>
+  <si>
+    <t>מייבש</t>
+  </si>
+  <si>
+    <t>אתרוג</t>
+  </si>
+  <si>
+    <t>זריחה</t>
+  </si>
+  <si>
+    <t>קישוא</t>
+  </si>
+  <si>
+    <t>עשבים</t>
+  </si>
+  <si>
+    <t>עמקים</t>
+  </si>
+  <si>
+    <t>צללים</t>
+  </si>
+  <si>
+    <t>גבעול</t>
+  </si>
+  <si>
+    <t>ברווז</t>
+  </si>
+  <si>
+    <t>אפרוח</t>
+  </si>
+  <si>
+    <t>סלעים</t>
+  </si>
+  <si>
+    <t>כוורת</t>
+  </si>
+  <si>
+    <t>אלמוג</t>
+  </si>
+  <si>
+    <t>כפתור</t>
+  </si>
+  <si>
+    <t>פיסגה</t>
+  </si>
+  <si>
     <t>artificial</t>
   </si>
   <si>
@@ -63,12 +154,84 @@
   </si>
   <si>
     <t>natural_freq</t>
+  </si>
+  <si>
+    <t>כורסה</t>
+  </si>
+  <si>
+    <t>משאבה</t>
+  </si>
+  <si>
+    <t>רמקול</t>
+  </si>
+  <si>
+    <t>טוסטר</t>
+  </si>
+  <si>
+    <t>כידון</t>
+  </si>
+  <si>
+    <t>קלפים</t>
+  </si>
+  <si>
+    <t>שמיים</t>
+  </si>
+  <si>
+    <t>ציפור</t>
+  </si>
+  <si>
+    <t>עכביש</t>
+  </si>
+  <si>
+    <t>אפרסק</t>
+  </si>
+  <si>
+    <t>מטאור</t>
+  </si>
+  <si>
+    <t>חרגול</t>
+  </si>
+  <si>
+    <t>נרקיס</t>
+  </si>
+  <si>
+    <t>אישון</t>
+  </si>
+  <si>
+    <t>כביסה</t>
+  </si>
+  <si>
+    <t>מסילה</t>
+  </si>
+  <si>
+    <t>מסננת</t>
+  </si>
+  <si>
+    <t>לימון</t>
+  </si>
+  <si>
+    <t>אגודל</t>
+  </si>
+  <si>
+    <t>מעיים</t>
+  </si>
+  <si>
+    <t>אבנים</t>
+  </si>
+  <si>
+    <t>קרסול</t>
+  </si>
+  <si>
+    <t>מדפסת</t>
+  </si>
+  <si>
+    <t>יאכטה</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,6 +364,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -218,16 +382,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D31" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:D31"/>
-  <sortState ref="A2:D31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DB74CED-6700-4019-9264-3E53DA5F823A}" name="Table1" displayName="Table1" ref="A1:D31" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:D31" xr:uid="{59193FBE-6F4D-4AA7-9A02-16CDA94E4DAF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
     <sortCondition ref="C1:C31"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="3" name="natural" dataDxfId="0"/>
-    <tableColumn id="4" name="natural_freq"/>
-    <tableColumn id="13" name="artificial"/>
-    <tableColumn id="14" name="artificail_freq"/>
+    <tableColumn id="3" xr3:uid="{58B6E547-D3F4-4B6F-81E7-CF4F47BBFFAA}" name="natural" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{885E5C90-4E46-4CD4-9134-5CFD00F451F7}" name="natural_freq"/>
+    <tableColumn id="13" xr3:uid="{CBA3CA3E-46C0-49FC-A349-B675BFABD717}" name="artificial"/>
+    <tableColumn id="14" xr3:uid="{22905208-940A-4078-84D4-A19030CF4433}" name="artificail_freq"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -495,11 +659,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G12" sqref="G1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -508,220 +672,445 @@
     <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3">
         <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3">
         <v>63</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="3">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="3">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="3">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="3">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="3">
+        <v>77</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="3">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="3">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="3">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="3">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="3">
+        <v>40</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
+      <c r="A21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="10">
+        <v>88</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="5">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3">
+        <v>69</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="3">
+        <v>16</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="3">
+        <v>51</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="3">
+        <v>13</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="3">
+        <v>36</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="3">
+        <v>28</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="3">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="3">
+        <v>30</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28">
+        <v>38</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3">
+        <v>16</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="3">
+        <v>21</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3">
+        <v>22</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="3">
+        <v>14</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>

--- a/development/stimuli/word_lists/word_freq_list.xlsx
+++ b/development/stimuli/word_lists/word_freq_list.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\development\stimuli\word_lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\khen_heller\subliminal_priming_w_motion_capture\development\stimuli\word_lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CBCF2F-1534-4BD0-840A-B690D7B21008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,15 +50,9 @@
     <t>מגירה</t>
   </si>
   <si>
-    <t>מזרקה</t>
-  </si>
-  <si>
     <t>מנורה</t>
   </si>
   <si>
-    <t>וילון</t>
-  </si>
-  <si>
     <t>תמרור</t>
   </si>
   <si>
@@ -114,9 +107,6 @@
     <t>עשבים</t>
   </si>
   <si>
-    <t>עמקים</t>
-  </si>
-  <si>
     <t>צללים</t>
   </si>
   <si>
@@ -168,9 +158,6 @@
     <t>טוסטר</t>
   </si>
   <si>
-    <t>כידון</t>
-  </si>
-  <si>
     <t>קלפים</t>
   </si>
   <si>
@@ -195,30 +182,12 @@
     <t>נרקיס</t>
   </si>
   <si>
-    <t>אישון</t>
-  </si>
-  <si>
     <t>כביסה</t>
   </si>
   <si>
-    <t>מסילה</t>
-  </si>
-  <si>
-    <t>מסננת</t>
-  </si>
-  <si>
-    <t>לימון</t>
-  </si>
-  <si>
-    <t>אגודל</t>
-  </si>
-  <si>
     <t>מעיים</t>
   </si>
   <si>
-    <t>אבנים</t>
-  </si>
-  <si>
     <t>קרסול</t>
   </si>
   <si>
@@ -226,12 +195,42 @@
   </si>
   <si>
     <t>יאכטה</t>
+  </si>
+  <si>
+    <t>טנקים</t>
+  </si>
+  <si>
+    <t>ביצים</t>
+  </si>
+  <si>
+    <t>צמחים</t>
+  </si>
+  <si>
+    <t>פצצות</t>
+  </si>
+  <si>
+    <t>פירות</t>
+  </si>
+  <si>
+    <t>פסלים</t>
+  </si>
+  <si>
+    <t>ספינה</t>
+  </si>
+  <si>
+    <t>סוסים</t>
+  </si>
+  <si>
+    <t>רובים</t>
+  </si>
+  <si>
+    <t>עצמות</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,7 +363,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -382,16 +380,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DB74CED-6700-4019-9264-3E53DA5F823A}" name="Table1" displayName="Table1" ref="A1:D31" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:D31" xr:uid="{59193FBE-6F4D-4AA7-9A02-16CDA94E4DAF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
-    <sortCondition ref="C1:C31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D31" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:D31"/>
+  <sortState ref="A2:D31">
+    <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="3" xr3:uid="{58B6E547-D3F4-4B6F-81E7-CF4F47BBFFAA}" name="natural" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{885E5C90-4E46-4CD4-9134-5CFD00F451F7}" name="natural_freq"/>
-    <tableColumn id="13" xr3:uid="{CBA3CA3E-46C0-49FC-A349-B675BFABD717}" name="artificial"/>
-    <tableColumn id="14" xr3:uid="{22905208-940A-4078-84D4-A19030CF4433}" name="artificail_freq"/>
+    <tableColumn id="3" name="natural" dataDxfId="0"/>
+    <tableColumn id="4" name="natural_freq"/>
+    <tableColumn id="13" name="artificial"/>
+    <tableColumn id="14" name="artificail_freq"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -659,11 +657,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G1:H12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -678,23 +676,23 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3">
         <v>23</v>
@@ -708,408 +706,408 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3">
         <v>14</v>
-      </c>
-      <c r="D3" s="3">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
+      <c r="A5" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B5" s="3">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3">
-        <v>27</v>
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>52</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="3">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
+      <c r="D7" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>59</v>
+      <c r="A9" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9">
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>57</v>
+      <c r="A10" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="3">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="D10" s="3">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B11" s="3">
-        <v>77</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D11" s="3">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>35</v>
+      <c r="A13" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B13" s="3">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
+      <c r="A14" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="B14" s="3">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="3">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D15" s="3">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B16" s="3">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="3">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="3">
+        <v>113</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="3">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="D22" s="3">
         <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="3">
-        <v>31</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="3">
-        <v>40</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="10">
-        <v>88</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="3">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="3">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B23" s="3">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D23" s="3">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="3">
-        <v>16</v>
+        <v>43</v>
+      </c>
+      <c r="B24" s="10">
+        <v>88</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D24" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="3">
-        <v>51</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D25" s="3">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="3">
-        <v>13</v>
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26">
+        <v>38</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="3">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="D26">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B27" s="3">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D27" s="3">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>48</v>
+      <c r="A28" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B28" s="3">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="D28" s="3">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B29" s="3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D29" s="3">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B30" s="3">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D30" s="3">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>33</v>
+      <c r="A31" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B31" s="3">
-        <v>45</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D31" s="3">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
